--- a/result/﻿Bar+Room+432.xlsx
+++ b/result/﻿Bar+Room+432.xlsx
@@ -14,7 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>urls</t>
+  </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -28,6 +40,15 @@
     <t>https://en.wikipedia.org/wiki/Jackie_60</t>
   </si>
   <si>
+    <t>Swing Rendezvous - NYC LGBT Historic Sites Project</t>
+  </si>
+  <si>
+    <t>The Swing Rendezvous was a jazz club and lesbian bar that was open from 1938 to 1965. Among the bar's notable patrons were writer and activist Audre Lorde ...</t>
+  </si>
+  <si>
+    <t>https://www.nyclgbtsites.org/site/swing-rendezvous/</t>
+  </si>
+  <si>
     <t>Danceteria, Studio 54 and other legendary clubs and parties</t>
   </si>
   <si>
@@ -49,15 +70,6 @@
     <t>https://www.tripadvisor.co.uk/Restaurant_Review-g60763-d4600118-Reviews-The_Bar_Room-New_York_City_New_York.html</t>
   </si>
   <si>
-    <t>SUTTON BAR ROOM (New York City) - All You Need to Know ...</t>
-  </si>
-  <si>
-    <t>It was mostly standing room, although several tables and bar stools were available. Bar staff was knowledgeable and generous with the wine, beer ( on tap ...</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.co.uk/Attraction_Review-g60763-d11530547-Reviews-Sutton_Bar_Room-New_York_City_New_York.html</t>
-  </si>
-  <si>
     <t>Powell Furniture Bar and Game Room Hamilton Bar Stool ...</t>
   </si>
   <si>
@@ -83,69 +95,6 @@
   </si>
   <si>
     <t>https://www.obxfurniture.com/powell-furniture-cherry-square-backless-bar/998-432-1056/iteminformation.aspx</t>
-  </si>
-  <si>
-    <t>Powell Furniture Bar and Game Room Band And Tall Copper ...</t>
-  </si>
-  <si>
-    <t>Shop for Powell Furniture Band And Tall Copper Stamped Back Barstool With Arms, 222-432, and other Bar and Game Room Stools at Short Furniture Co. in ...</t>
-  </si>
-  <si>
-    <t>https://www.shortfurnitureonline.com/powell-furniture-band-and-tall-copper-stamped/222-432-1056/iteminformation.aspx</t>
-  </si>
-  <si>
-    <t>CUT432 - A Modern Steakhouse Delray BeachCut432 ‹ A ...</t>
-  </si>
-  <si>
-    <t>https://cut432.com/</t>
-  </si>
-  <si>
-    <t>https://www.claussensfurniture.com/powell-furniture-cherry-square-backless-bar/998-432-1056/iteminformation.aspx</t>
-  </si>
-  <si>
-    <t>Toshi's Living Room and Penthouse | Party Venue NYC| Best ...</t>
-  </si>
-  <si>
-    <t>Welcome to Toshi's Living Room, the best Penthouse NYC venue to host memorable events, parties and weddings in New York. Call now at 917 432 8810 for ...</t>
-  </si>
-  <si>
-    <t>https://www.toshislivingroom.com/t/</t>
-  </si>
-  <si>
-    <t>Powell Furniture Hamilton Bar Stool 697-432</t>
-  </si>
-  <si>
-    <t>Shop for Powell Furniture Hamilton Bar Stool, 697-432, and other Bar and Game Room Stools at Yaletown Interiors in Coquitlam, BC.</t>
-  </si>
-  <si>
-    <t>https://www.yaletowninteriors.com/powell-furniture-hamilton-bar-stool/697-432-1056/iteminformation.aspx</t>
-  </si>
-  <si>
-    <t>The Living Room</t>
-  </si>
-  <si>
-    <t>DJ's / Events / Preformers · Weekends · NEW MENU · FLAVORFUL DISHES · RESTAURANT · EVENTS / LOUNGE · GREAT · FOOD ...</t>
-  </si>
-  <si>
-    <t>https://thelivingroomli.com/</t>
-  </si>
-  <si>
-    <t>Sushi Lab</t>
-  </si>
-  <si>
-    <t>Sushi Lab began as an 8-seat counter bar in the hotel lobby of the Sanctuary Hotel ... The Chemistry Room features a deliciously decadent 15-course omakase ...</t>
-  </si>
-  <si>
-    <t>https://www.sushilab.com/</t>
-  </si>
-  <si>
-    <t>Roof at Park South: New York City Rooftop Bar | NoMad NYC ...</t>
-  </si>
-  <si>
-    <t>Roof at Park South is a seasonal rooftop cocktail bar with impeccable cocktails, unique frozen beverages, and savory bar bites, with an unobstructed view of ...</t>
-  </si>
-  <si>
-    <t>https://www.roofatparksouth.com/</t>
   </si>
 </sst>
 </file>
@@ -490,338 +439,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D27"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
         <v>26</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -835,23 +581,6 @@
     <hyperlink ref="D8" r:id="rId7"/>
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/result/﻿Bar+Room+432.xlsx
+++ b/result/﻿Bar+Room+432.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
-    <t>2</t>
+    <t>32,300,000</t>
   </si>
   <si>
     <t>title</t>

--- a/result/﻿Bar+Room+432.xlsx
+++ b/result/﻿Bar+Room+432.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
-  <si>
-    <t>32,300,000</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="62">
+  <si>
+    <t>32,400,000</t>
   </si>
   <si>
     <t>title</t>
@@ -40,15 +40,6 @@
     <t>https://en.wikipedia.org/wiki/Jackie_60</t>
   </si>
   <si>
-    <t>Swing Rendezvous - NYC LGBT Historic Sites Project</t>
-  </si>
-  <si>
-    <t>The Swing Rendezvous was a jazz club and lesbian bar that was open from 1938 to 1965. Among the bar's notable patrons were writer and activist Audre Lorde ...</t>
-  </si>
-  <si>
-    <t>https://www.nyclgbtsites.org/site/swing-rendezvous/</t>
-  </si>
-  <si>
     <t>Danceteria, Studio 54 and other legendary clubs and parties</t>
   </si>
   <si>
@@ -58,43 +49,157 @@
     <t>https://www.timeout.com/newyork/nightlife/danceteria-studio-54-and-other-legendary-clubs-and-parties-in-nyc</t>
   </si>
   <si>
-    <t>432 Park Avenue Condominiums</t>
-  </si>
-  <si>
-    <t>http://www.432parkavenue.com/</t>
-  </si>
-  <si>
-    <t>The Bar Room - New York City Restaurants - TripAdvisor</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.co.uk/Restaurant_Review-g60763-d4600118-Reviews-The_Bar_Room-New_York_City_New_York.html</t>
-  </si>
-  <si>
-    <t>Powell Furniture Bar and Game Room Hamilton Bar Stool ...</t>
-  </si>
-  <si>
-    <t>https://www.butterworths-furniture.net/powell-furniture-hamilton-bar-stool/697-432-1056/iteminformation.aspx</t>
-  </si>
-  <si>
-    <t>Powell Furniture Slip Over Bar Stool, 30 Inch Seat Height ...</t>
-  </si>
-  <si>
-    <t>https://www.butterworths-furniture.net/powell-furniture-slip-over-bar-stool-30-inch/742-432-1056/iteminformation.aspx</t>
-  </si>
-  <si>
-    <t>Powell Furniture Big And Tall Diamond Top Bar Stool 586-432</t>
-  </si>
-  <si>
-    <t>Shop for Powell Furniture Big And Tall Diamond Top Bar Stool, 586-432, and other Bar and Game Room Stools at Short Furniture Co. in Litchfield, IL.</t>
-  </si>
-  <si>
-    <t>https://www.shortfurnitureonline.com/powell-furniture-big-and-tall-diamond-top-bar/586-432-1056/iteminformation.aspx</t>
-  </si>
-  <si>
-    <t>Powell Furniture Cherry Square Backless Bar Stool With ...</t>
+    <t>EAT At The Living Room - 432 N Wantagh Ave, Bethpage, NY</t>
+  </si>
+  <si>
+    <t>31 reviews of EAT At The Living Room "I'm giving the place two stars for the atmosphere and the music. I'd give the service at the bar here negative stars ...</t>
+  </si>
+  <si>
+    <t>https://www.yelp.com/biz/eat-at-the-living-room-bethpage-3</t>
+  </si>
+  <si>
+    <t>Sutton Bar Room (New York City) - TripAdvisor</t>
+  </si>
+  <si>
+    <t>... Things to do near Sutton Bar Room Admission Tickets Explore more top attractions ... 432. 0.4 mi$ • Bakeries • Gluten Free Options. See all. Attractions.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/Attraction_Review-g60763-d11530547-Reviews-Sutton_Bar_Room-New_York_City_New_York.html</t>
+  </si>
+  <si>
+    <t>Toshi's Living Room and Penthouse | Party Venue NYC| Best ...</t>
+  </si>
+  <si>
+    <t>Welcome to Toshi's Living Room, the best Penthouse NYC venue to host memorable events, parties and weddings in New York. Call now at 917 432 8810 for ...</t>
+  </si>
+  <si>
+    <t>https://toshislivingroom.com/t/</t>
+  </si>
+  <si>
+    <t>Powell Furniture Cherry Square Backless Bar Stool With Black ...</t>
+  </si>
+  <si>
+    <t>Shop for Powell Furniture Cherry Square Backless Bar Stool With Black Bonded Leather Seat, 998-432, and other Bar and Game Room Stools at Outer Banks ...</t>
   </si>
   <si>
     <t>https://www.obxfurniture.com/powell-furniture-cherry-square-backless-bar/998-432-1056/iteminformation.aspx</t>
+  </si>
+  <si>
+    <t>The Living Room</t>
+  </si>
+  <si>
+    <t>DJ's / Events / Preformers · Weekends · NEW MENU · FLAVORFUL DISHES · RESTAURANT · EVENTS / LOUNGE · GREAT · FOOD ...</t>
+  </si>
+  <si>
+    <t>https://thelivingroomli.com/</t>
+  </si>
+  <si>
+    <t>Counter &amp; Bar Dining Room Tables - Dunk &amp; Bright Furniture</t>
+  </si>
+  <si>
+    <t>Shop for Counter &amp; Bar Dining Room Tables at Dunk &amp; Bright Furniture. Our large selection, expert advice, and excellent prices will help you find Counter ...</t>
+  </si>
+  <si>
+    <t>https://www.dunkandbright.com/browse/dining-room/tables/432?n_161519716=-1876104896%2C-1459564694</t>
+  </si>
+  <si>
+    <t>Sushi Lab</t>
+  </si>
+  <si>
+    <t>Sushi Lab began as an 8-seat counter bar in the hotel lobby of the Sanctuary Hotel ... The Chemistry Room features a deliciously decadent 15-course omakase ...</t>
+  </si>
+  <si>
+    <t>https://www.sushilab.com/</t>
+  </si>
+  <si>
+    <t>Counter &amp; Bar Dining Room Tables - Story &amp; Lee Furniture</t>
+  </si>
+  <si>
+    <t>Shop for Counter &amp; Bar Dining Room Tables at Story &amp; Lee Furniture. Our large selection, expert advice, and excellent prices will help you find Counter ...</t>
+  </si>
+  <si>
+    <t>https://www.storyandlee.com/browse/dining-room/tables/432?n_161519716=-1876104896%2C-1459564694</t>
+  </si>
+  <si>
+    <t>Counter &amp; Bar Dining Room Tables - Phoenix - Del Sol Furniture</t>
+  </si>
+  <si>
+    <t>Shop for Counter &amp; Bar Dining Room Tables at Del Sol Furniture. Our large selection, expert advice, and excellent prices will help you find Counter &amp; Bar ...</t>
+  </si>
+  <si>
+    <t>https://www.delsolfurniture.com/browse/dining-room/tables/432?n_161519716=-1876104896%2C-1459564694</t>
+  </si>
+  <si>
+    <t>Powell Furniture Bar and Game Room Band And Tall Copper ...</t>
+  </si>
+  <si>
+    <t>Shop for Powell Furniture Band And Tall Copper Stamped Back Barstool With Arms, 222-432, and other Bar and Game Room Stools at Indian River Furniture in ...</t>
+  </si>
+  <si>
+    <t>https://www.indianriverfurniture.com/powell-furniture-band-and-tall-copper-stamped/222-432-1056/iteminformation.aspx</t>
+  </si>
+  <si>
+    <t>The Pines Resort: Lakefront Hotel on Bass Lake</t>
+  </si>
+  <si>
+    <t>Located near Yosemite National Park &amp; California's other popular attractions, this Yosemite lakeside resort awaits you with luxurious mountain cabins.</t>
+  </si>
+  <si>
+    <t>https://www.basslake.com/</t>
+  </si>
+  <si>
+    <t>Powell Furniture Bar and Game Room Hamilton Bar Stool 697 ...</t>
+  </si>
+  <si>
+    <t>Shop for Powell Furniture Hamilton Bar Stool, 697-432, and other Bar and Game Room Stools at Carol House Furniture in Maryland Heights, Missouri and Valley ...</t>
+  </si>
+  <si>
+    <t>https://www.carolhouse.com/powell-furniture-hamilton-bar-stool/697-432-1056/iteminformation.aspx</t>
+  </si>
+  <si>
+    <t>Counter &amp; Bar Dining Room Tables - Rochester - Ruby Gordon</t>
+  </si>
+  <si>
+    <t>Shop for Counter &amp; Bar Dining Room Tables at Ruby Gordon Home. Our large selection, expert advice, and excellent prices will help you find Counter &amp; Bar ...</t>
+  </si>
+  <si>
+    <t>https://www.rubygordon.com/browse/dining-room/tables/432?n_161519716=-1876104896,-1459564694&amp;page=1</t>
+  </si>
+  <si>
+    <t>The Office Bar and Grill in Cheyenne Wyoming</t>
+  </si>
+  <si>
+    <t>We have private dining rooms available for rent seating groups of 15 up to large party groups of 130 people. The Executive Cigar and Smoke Lounge is a ...</t>
+  </si>
+  <si>
+    <t>https://www.theofficewy.com/</t>
+  </si>
+  <si>
+    <t>MurphGuide Directory of Closed Bars in NYC</t>
+  </si>
+  <si>
+    <t>NameLocationWhat's There No...@ Bar12 St. Marks Pl. (between 2nd &amp; 3rd Ave.)San Marcos10021 Bar &amp; Grill1162 First Ave. (between 63rd &amp; 64th St.)A.J. Gordon's Brewing212 W. 79th St. (between Amsterdam &amp; Broadway)Blondie'sView 664 more rows</t>
+  </si>
+  <si>
+    <t>http://www.murphguide.com/closedbars.htm</t>
+  </si>
+  <si>
+    <t>Roof at Park South: New York City Rooftop Bar | NoMad NYC ...</t>
+  </si>
+  <si>
+    <t>Roof at Park South is a seasonal rooftop cocktail bar with impeccable cocktails, unique frozen beverages, and savory bar bites, with an unobstructed view of ...</t>
+  </si>
+  <si>
+    <t>https://www.roofatparksouth.com/</t>
+  </si>
+  <si>
+    <t>Counter &amp; Bar Dining Room Tables - Michael Alan Furnishings</t>
+  </si>
+  <si>
+    <t>Shop for Counter &amp; Bar Dining Room Tables at Michael Alan Furniture &amp; Design. Our large selection, expert advice, and excellent prices will help you find ...</t>
+  </si>
+  <si>
+    <t>https://www.michaelalanaz.com/browse/dining-room/tables/432?n_161519716=-1876104896%2C-1459564694</t>
   </si>
 </sst>
 </file>
@@ -439,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,8 +613,11 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -517,10 +625,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -528,10 +639,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -539,10 +653,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -550,13 +667,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -564,10 +681,363 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -581,6 +1051,31 @@
     <hyperlink ref="D8" r:id="rId7"/>
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
